--- a/ol-handback/OpenLocalizationTest/azuretest/master/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/azuretest/master/handback-status.xlsx
@@ -6,27 +6,43 @@
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId2"/>
-    <sheet name="zh-cn" sheetId="2" r:id="rId3"/>
+    <sheet name="de-de" sheetId="2" r:id="rId3"/>
+    <sheet name="ja-jp" sheetId="3" r:id="rId4"/>
+    <sheet name="zh-tw" sheetId="4" r:id="rId5"/>
+    <sheet name="ru-ru" sheetId="5" r:id="rId6"/>
+    <sheet name="pl-pl" sheetId="6" r:id="rId7"/>
+    <sheet name="ko-kr" sheetId="7" r:id="rId8"/>
+    <sheet name="es-es" sheetId="8" r:id="rId9"/>
+    <sheet name="pt-br" sheetId="9" r:id="rId10"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>File Name</t>
   </si>
   <si>
-    <t>zh-cn</t>
-  </si>
-  <si>
-    <t>app-service-mobile-dotnet-backend-enable-auth-preview.md</t>
+    <t>de-de</t>
+  </si>
+  <si>
+    <t>active-directory-aadconnect-account-summary.md</t>
+  </si>
+  <si>
+    <t>Handed back: not in sync with en-US</t>
+  </si>
+  <si>
+    <t>app-service-api-arm-existing-gateway-provision.md</t>
   </si>
   <si>
     <t>Handed back: in sync with en-US</t>
   </si>
   <si>
+    <t>app-service-mobile-dotnet-backend-ios-aad-sso-preview.md</t>
+  </si>
+  <si>
     <t>Source File Name</t>
   </si>
   <si>
@@ -66,19 +82,36 @@
     <t>.md</t>
   </si>
   <si>
-    <t>app-service-mobile-dotnet-backend-enable-auth-preview.d094c0628742a15e25555861cd00986e574f011d.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-03-23 06:32:24</t>
-  </si>
-  <si>
-    <t>2016-03-23 07:29:57</t>
-  </si>
-  <si>
-    <t>IsDependency</t>
-  </si>
-  <si>
-    <t>articles\app-service-mobile\app-service-mobile-dotnet-backend-ios-aad-sso-preview.md</t>
+    <t>active-directory-aadconnect-account-summary.c595e1f67a4320e8b74dcf9b9adefa9e2bd5349c.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-22 04:47:06</t>
+  </si>
+  <si>
+    <t>2016-03-23 02:01:35</t>
+  </si>
+  <si>
+    <t>Include</t>
+  </si>
+  <si>
+    <t>app-service-api-arm-existing-gateway-provision.62ff6650cf1e7159583ccbe3fc0fa0a369cffdc5.de-de.xlf</t>
+  </si>
+  <si>
+    <t>includes\app-service-api-deploy-parameters.md,
+includes\app-service-deploy-commands.md</t>
+  </si>
+  <si>
+    <t>app-service-mobile-dotnet-backend-ios-aad-sso-preview.8b82eb0b9d655d20393802fd1a13fcc8400b15b6.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-04-13 05:59:26</t>
+  </si>
+  <si>
+    <t>includes\app-service-mobile-selector-aad-sso.md,
+includes\app-service-mobile-note-mobile-services-preview.md,
+includes\app-service-mobile-dotnet-backend-enable-auth-preview.md,
+includes\app-service-mobile-adal-register-app.md,
+includes\app-service-mobile-restrict-permissions-dotnet-backend.md</t>
   </si>
 </sst>
 </file>
@@ -135,8 +168,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:M1" headerRowCount="0">
-  <tableColumns count="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="de-de" displayName="de_de" ref="A1:L4" headerRowCount="1">
+  <autoFilter ref="A1:L4"/>
+  <tableColumns count="12">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
     <tableColumn id="3" name="Status"/>
@@ -149,25 +183,165 @@
     <tableColumn id="10" name="Handoff Reason"/>
     <tableColumn id="11" name="Dependency From"/>
     <tableColumn id="12" name="Error Detail"/>
-    <tableColumn id="13" name="Column13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Overview" displayName="Overview" ref="A1:B1" headerRowCount="0">
-  <tableColumns count="2">
-    <tableColumn id="1" name="File Name"/>
-    <tableColumn id="2" name="zh-cn"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="ja-jp" displayName="ja_jp" ref="A1:L1" headerRowCount="0">
+  <tableColumns count="12">
+    <tableColumn id="1" name="Source File Name"/>
+    <tableColumn id="2" name="File Extension"/>
+    <tableColumn id="3" name="Status"/>
+    <tableColumn id="4" name="Correspond Handoff File"/>
+    <tableColumn id="5" name="Correspond Handoff Datetime"/>
+    <tableColumn id="6" name="Target File"/>
+    <tableColumn id="7" name="Correspond Handback File"/>
+    <tableColumn id="8" name="Correspond Handback DateTime"/>
+    <tableColumn id="9" name="Reference Tokens"/>
+    <tableColumn id="10" name="Handoff Reason"/>
+    <tableColumn id="11" name="Dependency From"/>
+    <tableColumn id="12" name="Error Detail"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="zh-tw" displayName="zh_tw" ref="A1:L1" headerRowCount="0">
+  <tableColumns count="12">
+    <tableColumn id="1" name="Source File Name"/>
+    <tableColumn id="2" name="File Extension"/>
+    <tableColumn id="3" name="Status"/>
+    <tableColumn id="4" name="Correspond Handoff File"/>
+    <tableColumn id="5" name="Correspond Handoff Datetime"/>
+    <tableColumn id="6" name="Target File"/>
+    <tableColumn id="7" name="Correspond Handback File"/>
+    <tableColumn id="8" name="Correspond Handback DateTime"/>
+    <tableColumn id="9" name="Reference Tokens"/>
+    <tableColumn id="10" name="Handoff Reason"/>
+    <tableColumn id="11" name="Dependency From"/>
+    <tableColumn id="12" name="Error Detail"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="ru-ru" displayName="ru_ru" ref="A1:L1" headerRowCount="0">
+  <tableColumns count="12">
+    <tableColumn id="1" name="Source File Name"/>
+    <tableColumn id="2" name="File Extension"/>
+    <tableColumn id="3" name="Status"/>
+    <tableColumn id="4" name="Correspond Handoff File"/>
+    <tableColumn id="5" name="Correspond Handoff Datetime"/>
+    <tableColumn id="6" name="Target File"/>
+    <tableColumn id="7" name="Correspond Handback File"/>
+    <tableColumn id="8" name="Correspond Handback DateTime"/>
+    <tableColumn id="9" name="Reference Tokens"/>
+    <tableColumn id="10" name="Handoff Reason"/>
+    <tableColumn id="11" name="Dependency From"/>
+    <tableColumn id="12" name="Error Detail"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="pl-pl" displayName="pl_pl" ref="A1:L1" headerRowCount="0">
+  <tableColumns count="12">
+    <tableColumn id="1" name="Source File Name"/>
+    <tableColumn id="2" name="File Extension"/>
+    <tableColumn id="3" name="Status"/>
+    <tableColumn id="4" name="Correspond Handoff File"/>
+    <tableColumn id="5" name="Correspond Handoff Datetime"/>
+    <tableColumn id="6" name="Target File"/>
+    <tableColumn id="7" name="Correspond Handback File"/>
+    <tableColumn id="8" name="Correspond Handback DateTime"/>
+    <tableColumn id="9" name="Reference Tokens"/>
+    <tableColumn id="10" name="Handoff Reason"/>
+    <tableColumn id="11" name="Dependency From"/>
+    <tableColumn id="12" name="Error Detail"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="ko-kr" displayName="ko_kr" ref="A1:L1" headerRowCount="0">
+  <tableColumns count="12">
+    <tableColumn id="1" name="Source File Name"/>
+    <tableColumn id="2" name="File Extension"/>
+    <tableColumn id="3" name="Status"/>
+    <tableColumn id="4" name="Correspond Handoff File"/>
+    <tableColumn id="5" name="Correspond Handoff Datetime"/>
+    <tableColumn id="6" name="Target File"/>
+    <tableColumn id="7" name="Correspond Handback File"/>
+    <tableColumn id="8" name="Correspond Handback DateTime"/>
+    <tableColumn id="9" name="Reference Tokens"/>
+    <tableColumn id="10" name="Handoff Reason"/>
+    <tableColumn id="11" name="Dependency From"/>
+    <tableColumn id="12" name="Error Detail"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="es-es" displayName="es_es" ref="A1:L1" headerRowCount="0">
+  <tableColumns count="12">
+    <tableColumn id="1" name="Source File Name"/>
+    <tableColumn id="2" name="File Extension"/>
+    <tableColumn id="3" name="Status"/>
+    <tableColumn id="4" name="Correspond Handoff File"/>
+    <tableColumn id="5" name="Correspond Handoff Datetime"/>
+    <tableColumn id="6" name="Target File"/>
+    <tableColumn id="7" name="Correspond Handback File"/>
+    <tableColumn id="8" name="Correspond Handback DateTime"/>
+    <tableColumn id="9" name="Reference Tokens"/>
+    <tableColumn id="10" name="Handoff Reason"/>
+    <tableColumn id="11" name="Dependency From"/>
+    <tableColumn id="12" name="Error Detail"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="pt-br" displayName="pt_br" ref="A1:L1" headerRowCount="0">
+  <tableColumns count="12">
+    <tableColumn id="1" name="Source File Name"/>
+    <tableColumn id="2" name="File Extension"/>
+    <tableColumn id="3" name="Status"/>
+    <tableColumn id="4" name="Correspond Handoff File"/>
+    <tableColumn id="5" name="Correspond Handoff Datetime"/>
+    <tableColumn id="6" name="Target File"/>
+    <tableColumn id="7" name="Correspond Handback File"/>
+    <tableColumn id="8" name="Correspond Handback DateTime"/>
+    <tableColumn id="9" name="Reference Tokens"/>
+    <tableColumn id="10" name="Handoff Reason"/>
+    <tableColumn id="11" name="Dependency From"/>
+    <tableColumn id="12" name="Error Detail"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Overview" displayName="Overview" ref="A1:B4" headerRowCount="1">
+  <autoFilter ref="A1:B4"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="File Name"/>
+    <tableColumn id="2" name="de-de"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -193,9 +367,27 @@
         <v>3</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="app-service-mobile-dotnet-backend-enable-auth-preview.md" r:id="rId2"/>
+    <hyperlink ref="A2" display="active-directory-aadconnect-account-summary.md" r:id="rId2"/>
+    <hyperlink ref="A3" display="app-service-api-arm-existing-gateway-provision.md" r:id="rId3"/>
+    <hyperlink ref="A4" display="app-service-mobile-dotnet-backend-ios-aad-sso-preview.md" r:id="rId4"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -206,7 +398,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -228,40 +420,40 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2">
@@ -269,43 +461,588 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" s="0" t="s">
+      <c r="C3" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>21</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="app-service-mobile-dotnet-backend-enable-auth-preview.md" r:id="rId2"/>
-    <hyperlink ref="D2" display="app-service-mobile-dotnet-backend-enable-auth-preview.d094c0628742a15e25555861cd00986e574f011d.zh-cn.xlf" r:id="rId3"/>
-    <hyperlink ref="F2" display="app-service-mobile-dotnet-backend-enable-auth-preview.md" r:id="rId4"/>
-    <hyperlink ref="G2" display="app-service-mobile-dotnet-backend-enable-auth-preview.d094c0628742a15e25555861cd00986e574f011d.zh-cn.xlf" r:id="rId5"/>
+    <hyperlink ref="A2" display="active-directory-aadconnect-account-summary.md" r:id="rId2"/>
+    <hyperlink ref="D2" display="active-directory-aadconnect-account-summary.c595e1f67a4320e8b74dcf9b9adefa9e2bd5349c.de-de.xlf" r:id="rId3"/>
+    <hyperlink ref="F2" display="active-directory-aadconnect-account-summary.md" r:id="rId4"/>
+    <hyperlink ref="G2" display="active-directory-aadconnect-account-summary.c595e1f67a4320e8b74dcf9b9adefa9e2bd5349c.de-de.xlf" r:id="rId5"/>
+    <hyperlink ref="A3" display="app-service-api-arm-existing-gateway-provision.md" r:id="rId6"/>
+    <hyperlink ref="D3" display="app-service-api-arm-existing-gateway-provision.62ff6650cf1e7159583ccbe3fc0fa0a369cffdc5.de-de.xlf" r:id="rId7"/>
+    <hyperlink ref="F3" display="app-service-api-arm-existing-gateway-provision.md" r:id="rId8"/>
+    <hyperlink ref="G3" display="app-service-api-arm-existing-gateway-provision.62ff6650cf1e7159583ccbe3fc0fa0a369cffdc5.de-de.xlf" r:id="rId9"/>
+    <hyperlink ref="A4" display="app-service-mobile-dotnet-backend-ios-aad-sso-preview.md" r:id="rId10"/>
+    <hyperlink ref="D4" display="app-service-mobile-dotnet-backend-ios-aad-sso-preview.8b82eb0b9d655d20393802fd1a13fcc8400b15b6.de-de.xlf" r:id="rId11"/>
+    <hyperlink ref="F4" display="app-service-mobile-dotnet-backend-ios-aad-sso-preview.md" r:id="rId12"/>
+    <hyperlink ref="G4" display="app-service-mobile-dotnet-backend-ios-aad-sso-preview.8b82eb0b9d655d20393802fd1a13fcc8400b15b6.de-de.xlf" r:id="rId13"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:L1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="5" max="5" width="20" customWidth="1"/>
+    <col min="6" max="6" width="20" customWidth="1"/>
+    <col min="7" max="7" width="20" customWidth="1"/>
+    <col min="8" max="8" width="20" customWidth="1"/>
+    <col min="9" max="9" width="20" customWidth="1"/>
+    <col min="10" max="10" width="20" customWidth="1"/>
+    <col min="11" max="11" width="20" customWidth="1"/>
+    <col min="12" max="12" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <headerFooter/>
+  <tableParts>
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:L1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="5" max="5" width="20" customWidth="1"/>
+    <col min="6" max="6" width="20" customWidth="1"/>
+    <col min="7" max="7" width="20" customWidth="1"/>
+    <col min="8" max="8" width="20" customWidth="1"/>
+    <col min="9" max="9" width="20" customWidth="1"/>
+    <col min="10" max="10" width="20" customWidth="1"/>
+    <col min="11" max="11" width="20" customWidth="1"/>
+    <col min="12" max="12" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <headerFooter/>
+  <tableParts>
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:L1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="5" max="5" width="20" customWidth="1"/>
+    <col min="6" max="6" width="20" customWidth="1"/>
+    <col min="7" max="7" width="20" customWidth="1"/>
+    <col min="8" max="8" width="20" customWidth="1"/>
+    <col min="9" max="9" width="20" customWidth="1"/>
+    <col min="10" max="10" width="20" customWidth="1"/>
+    <col min="11" max="11" width="20" customWidth="1"/>
+    <col min="12" max="12" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <headerFooter/>
+  <tableParts>
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:L1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="5" max="5" width="20" customWidth="1"/>
+    <col min="6" max="6" width="20" customWidth="1"/>
+    <col min="7" max="7" width="20" customWidth="1"/>
+    <col min="8" max="8" width="20" customWidth="1"/>
+    <col min="9" max="9" width="20" customWidth="1"/>
+    <col min="10" max="10" width="20" customWidth="1"/>
+    <col min="11" max="11" width="20" customWidth="1"/>
+    <col min="12" max="12" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <headerFooter/>
+  <tableParts>
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:L1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="5" max="5" width="20" customWidth="1"/>
+    <col min="6" max="6" width="20" customWidth="1"/>
+    <col min="7" max="7" width="20" customWidth="1"/>
+    <col min="8" max="8" width="20" customWidth="1"/>
+    <col min="9" max="9" width="20" customWidth="1"/>
+    <col min="10" max="10" width="20" customWidth="1"/>
+    <col min="11" max="11" width="20" customWidth="1"/>
+    <col min="12" max="12" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <headerFooter/>
+  <tableParts>
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:L1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="5" max="5" width="20" customWidth="1"/>
+    <col min="6" max="6" width="20" customWidth="1"/>
+    <col min="7" max="7" width="20" customWidth="1"/>
+    <col min="8" max="8" width="20" customWidth="1"/>
+    <col min="9" max="9" width="20" customWidth="1"/>
+    <col min="10" max="10" width="20" customWidth="1"/>
+    <col min="11" max="11" width="20" customWidth="1"/>
+    <col min="12" max="12" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <headerFooter/>
+  <tableParts>
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:L1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="5" max="5" width="20" customWidth="1"/>
+    <col min="6" max="6" width="20" customWidth="1"/>
+    <col min="7" max="7" width="20" customWidth="1"/>
+    <col min="8" max="8" width="20" customWidth="1"/>
+    <col min="9" max="9" width="20" customWidth="1"/>
+    <col min="10" max="10" width="20" customWidth="1"/>
+    <col min="11" max="11" width="20" customWidth="1"/>
+    <col min="12" max="12" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <headerFooter/>
+  <tableParts>
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>